--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H2">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I2">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J2">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.54901875760126</v>
+        <v>0.017772</v>
       </c>
       <c r="N2">
-        <v>5.54901875760126</v>
+        <v>0.053316</v>
       </c>
       <c r="O2">
-        <v>0.9139636048412911</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P2">
-        <v>0.9139636048412911</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q2">
-        <v>58.04448704048963</v>
+        <v>0.186990503144</v>
       </c>
       <c r="R2">
-        <v>58.04448704048963</v>
+        <v>1.682914528296</v>
       </c>
       <c r="S2">
-        <v>0.463523945723264</v>
+        <v>0.001257325214500542</v>
       </c>
       <c r="T2">
-        <v>0.463523945723264</v>
+        <v>0.001342395938291523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H3">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I3">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J3">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.522359498828154</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N3">
-        <v>0.522359498828154</v>
+        <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.08603639515870888</v>
+        <v>0.9133942834993933</v>
       </c>
       <c r="P3">
-        <v>0.08603639515870888</v>
+        <v>0.9376636644070619</v>
       </c>
       <c r="Q3">
-        <v>5.464045173513572</v>
+        <v>64.96091674754246</v>
       </c>
       <c r="R3">
-        <v>5.464045173513572</v>
+        <v>584.6482507278821</v>
       </c>
       <c r="S3">
-        <v>0.04363404532579367</v>
+        <v>0.4367975764034219</v>
       </c>
       <c r="T3">
-        <v>0.04363404532579367</v>
+        <v>0.4663513350859331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H4">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I4">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J4">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.54901875760126</v>
+        <v>0.03562666666666667</v>
       </c>
       <c r="N4">
-        <v>5.54901875760126</v>
+        <v>0.10688</v>
       </c>
       <c r="O4">
-        <v>0.9139636048412911</v>
+        <v>0.005270654884293887</v>
       </c>
       <c r="P4">
-        <v>0.9139636048412911</v>
+        <v>0.005410699039737605</v>
       </c>
       <c r="Q4">
-        <v>42.5375910291832</v>
+        <v>0.3748507948088889</v>
       </c>
       <c r="R4">
-        <v>42.5375910291832</v>
+        <v>3.37365715328</v>
       </c>
       <c r="S4">
-        <v>0.3396910376976121</v>
+        <v>0.002520498891998985</v>
       </c>
       <c r="T4">
-        <v>0.3396910376976121</v>
+        <v>0.002691036047051505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H5">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I5">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J5">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.522359498828154</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N5">
-        <v>0.522359498828154</v>
+        <v>0.021442</v>
       </c>
       <c r="O5">
-        <v>0.08603639515870888</v>
+        <v>0.001057385685151848</v>
       </c>
       <c r="P5">
-        <v>0.08603639515870888</v>
+        <v>0.001085480995603047</v>
       </c>
       <c r="Q5">
-        <v>4.004296201183934</v>
+        <v>0.07520163493911111</v>
       </c>
       <c r="R5">
-        <v>4.004296201183934</v>
+        <v>0.676814714452</v>
       </c>
       <c r="S5">
-        <v>0.03197697610322094</v>
+        <v>0.0005056562241976258</v>
       </c>
       <c r="T5">
-        <v>0.03197697610322094</v>
+        <v>0.000539868964454326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.49925712434595</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H6">
-        <v>2.49925712434595</v>
+        <v>31.564906</v>
       </c>
       <c r="I6">
-        <v>0.1211739951501094</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J6">
-        <v>0.1211739951501094</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.54901875760126</v>
+        <v>0.52486</v>
       </c>
       <c r="N6">
-        <v>5.54901875760126</v>
+        <v>1.04972</v>
       </c>
       <c r="O6">
-        <v>0.9139636048412911</v>
+        <v>0.07764846339550401</v>
       </c>
       <c r="P6">
-        <v>0.9139636048412911</v>
+        <v>0.05314108342059654</v>
       </c>
       <c r="Q6">
-        <v>13.86842466306426</v>
+        <v>5.522385521053334</v>
       </c>
       <c r="R6">
-        <v>13.86842466306426</v>
+        <v>33.13431312632</v>
       </c>
       <c r="S6">
-        <v>0.1107486214204151</v>
+        <v>0.03713255188401723</v>
       </c>
       <c r="T6">
-        <v>0.1107486214204151</v>
+        <v>0.02642996219415143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H7">
+        <v>25.529465</v>
+      </c>
+      <c r="I7">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J7">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.017772</v>
+      </c>
+      <c r="N7">
+        <v>0.053316</v>
+      </c>
+      <c r="O7">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P7">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q7">
+        <v>0.15123655066</v>
+      </c>
+      <c r="R7">
+        <v>1.36112895594</v>
+      </c>
+      <c r="S7">
+        <v>0.001016915433146199</v>
+      </c>
+      <c r="T7">
+        <v>0.001085720012052486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H8">
+        <v>25.529465</v>
+      </c>
+      <c r="I8">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J8">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N8">
+        <v>18.522097</v>
+      </c>
+      <c r="O8">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P8">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q8">
+        <v>52.53991412090056</v>
+      </c>
+      <c r="R8">
+        <v>472.8592270881051</v>
+      </c>
+      <c r="S8">
+        <v>0.3532786835758669</v>
+      </c>
+      <c r="T8">
+        <v>0.377181547341836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H9">
+        <v>25.529465</v>
+      </c>
+      <c r="I9">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J9">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.10688</v>
+      </c>
+      <c r="O9">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P9">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q9">
+        <v>0.3031765799111111</v>
+      </c>
+      <c r="R9">
+        <v>2.7285892192</v>
+      </c>
+      <c r="S9">
+        <v>0.002038561060369604</v>
+      </c>
+      <c r="T9">
+        <v>0.002176490263488817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H10">
+        <v>25.529465</v>
+      </c>
+      <c r="I10">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J10">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.021442</v>
+      </c>
+      <c r="O10">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P10">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q10">
+        <v>0.06082253205888889</v>
+      </c>
+      <c r="R10">
+        <v>0.54740278853</v>
+      </c>
+      <c r="S10">
+        <v>0.0004089710540460802</v>
+      </c>
+      <c r="T10">
+        <v>0.0004366420680176573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H11">
+        <v>25.529465</v>
+      </c>
+      <c r="I11">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J11">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.52486</v>
+      </c>
+      <c r="N11">
+        <v>1.04972</v>
+      </c>
+      <c r="O11">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P11">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q11">
+        <v>4.466464999966667</v>
+      </c>
+      <c r="R11">
+        <v>26.7987899998</v>
+      </c>
+      <c r="S11">
+        <v>0.03003253625034404</v>
+      </c>
+      <c r="T11">
+        <v>0.02137636002422793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="H7">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="I7">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="J7">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.522359498828154</v>
-      </c>
-      <c r="N7">
-        <v>0.522359498828154</v>
-      </c>
-      <c r="O7">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="P7">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="Q7">
-        <v>1.305510698916044</v>
-      </c>
-      <c r="R7">
-        <v>1.305510698916044</v>
-      </c>
-      <c r="S7">
-        <v>0.01042537372969428</v>
-      </c>
-      <c r="T7">
-        <v>0.01042537372969428</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.344699</v>
+      </c>
+      <c r="I12">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J12">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.017772</v>
+      </c>
+      <c r="N12">
+        <v>0.053316</v>
+      </c>
+      <c r="O12">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P12">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q12">
+        <v>0.002041996876</v>
+      </c>
+      <c r="R12">
+        <v>0.018377971884</v>
+      </c>
+      <c r="S12">
+        <v>1.373039869382542E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.465939855905637E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.344699</v>
+      </c>
+      <c r="I13">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J13">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.522097</v>
+      </c>
+      <c r="O13">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P13">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q13">
+        <v>0.7093942570892222</v>
+      </c>
+      <c r="R13">
+        <v>6.384548313803</v>
+      </c>
+      <c r="S13">
+        <v>0.00476997104913549</v>
+      </c>
+      <c r="T13">
+        <v>0.005092707668851796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.344699</v>
+      </c>
+      <c r="I14">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J14">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.10688</v>
+      </c>
+      <c r="O14">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P14">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q14">
+        <v>0.004093492124444444</v>
+      </c>
+      <c r="R14">
+        <v>0.03684142912</v>
+      </c>
+      <c r="S14">
+        <v>2.752466449838812E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.938698548263082E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.344699</v>
+      </c>
+      <c r="I15">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J15">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.021442</v>
+      </c>
+      <c r="O15">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P15">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q15">
+        <v>0.0008212262175555555</v>
+      </c>
+      <c r="R15">
+        <v>0.007391035957999999</v>
+      </c>
+      <c r="S15">
+        <v>5.521929792051254E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.89554399998662E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.344699</v>
+      </c>
+      <c r="I16">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J16">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.52486</v>
+      </c>
+      <c r="N16">
+        <v>1.04972</v>
+      </c>
+      <c r="O16">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P16">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q16">
+        <v>0.06030623904666666</v>
+      </c>
+      <c r="R16">
+        <v>0.36183743428</v>
+      </c>
+      <c r="S16">
+        <v>0.0004054994968738021</v>
+      </c>
+      <c r="T16">
+        <v>0.0002886237500077398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.315325</v>
+      </c>
+      <c r="H17">
+        <v>0.945975</v>
+      </c>
+      <c r="I17">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J17">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.017772</v>
+      </c>
+      <c r="N17">
+        <v>0.053316</v>
+      </c>
+      <c r="O17">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P17">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q17">
+        <v>0.005603955900000001</v>
+      </c>
+      <c r="R17">
+        <v>0.0504356031</v>
+      </c>
+      <c r="S17">
+        <v>3.768103157941132E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.023053316633744E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.315325</v>
+      </c>
+      <c r="H18">
+        <v>0.945975</v>
+      </c>
+      <c r="I18">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J18">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N18">
+        <v>18.522097</v>
+      </c>
+      <c r="O18">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P18">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q18">
+        <v>1.946826745508334</v>
+      </c>
+      <c r="R18">
+        <v>17.521440709575</v>
+      </c>
+      <c r="S18">
+        <v>0.01309047419112311</v>
+      </c>
+      <c r="T18">
+        <v>0.01397617671371857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.315325</v>
+      </c>
+      <c r="H19">
+        <v>0.945975</v>
+      </c>
+      <c r="I19">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J19">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.10688</v>
+      </c>
+      <c r="O19">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P19">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q19">
+        <v>0.01123397866666667</v>
+      </c>
+      <c r="R19">
+        <v>0.101105808</v>
+      </c>
+      <c r="S19">
+        <v>7.553733691963917E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.064819913005751E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.315325</v>
+      </c>
+      <c r="H20">
+        <v>0.945975</v>
+      </c>
+      <c r="I20">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J20">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.021442</v>
+      </c>
+      <c r="O20">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P20">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q20">
+        <v>0.002253732883333333</v>
+      </c>
+      <c r="R20">
+        <v>0.02028359595</v>
+      </c>
+      <c r="S20">
+        <v>1.515411282027417E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.617944129628268E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.315325</v>
+      </c>
+      <c r="H21">
+        <v>0.945975</v>
+      </c>
+      <c r="I21">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J21">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.52486</v>
+      </c>
+      <c r="N21">
+        <v>1.04972</v>
+      </c>
+      <c r="O21">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P21">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q21">
+        <v>0.1655014795</v>
+      </c>
+      <c r="R21">
+        <v>0.993008877</v>
+      </c>
+      <c r="S21">
+        <v>0.001112832896397132</v>
+      </c>
+      <c r="T21">
+        <v>0.0007920848389858155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.5402755</v>
+      </c>
+      <c r="H22">
+        <v>5.080551</v>
+      </c>
+      <c r="I22">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J22">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.017772</v>
+      </c>
+      <c r="N22">
+        <v>0.053316</v>
+      </c>
+      <c r="O22">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P22">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q22">
+        <v>0.045145776186</v>
+      </c>
+      <c r="R22">
+        <v>0.270874657116</v>
+      </c>
+      <c r="S22">
+        <v>0.0003035604577369535</v>
+      </c>
+      <c r="T22">
+        <v>0.0002160662549314399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.5402755</v>
+      </c>
+      <c r="H23">
+        <v>5.080551</v>
+      </c>
+      <c r="I23">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J23">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.522097</v>
+      </c>
+      <c r="O23">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P23">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q23">
+        <v>15.6837430725745</v>
+      </c>
+      <c r="R23">
+        <v>94.10245843544701</v>
+      </c>
+      <c r="S23">
+        <v>0.1054575782798457</v>
+      </c>
+      <c r="T23">
+        <v>0.07506189759672253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.5402755</v>
+      </c>
+      <c r="H24">
+        <v>5.080551</v>
+      </c>
+      <c r="I24">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J24">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.10688</v>
+      </c>
+      <c r="O24">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P24">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q24">
+        <v>0.09050154848</v>
+      </c>
+      <c r="R24">
+        <v>0.5430092908799999</v>
+      </c>
+      <c r="S24">
+        <v>0.0006085329305072697</v>
+      </c>
+      <c r="T24">
+        <v>0.0004331375445845956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.5402755</v>
+      </c>
+      <c r="H25">
+        <v>5.080551</v>
+      </c>
+      <c r="I25">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J25">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.021442</v>
+      </c>
+      <c r="O25">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P25">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q25">
+        <v>0.018156195757</v>
+      </c>
+      <c r="R25">
+        <v>0.108937174542</v>
+      </c>
+      <c r="S25">
+        <v>0.0001220823642958166</v>
+      </c>
+      <c r="T25">
+        <v>8.689497783479507E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.5402755</v>
+      </c>
+      <c r="H26">
+        <v>5.080551</v>
+      </c>
+      <c r="I26">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J26">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.52486</v>
+      </c>
+      <c r="N26">
+        <v>1.04972</v>
+      </c>
+      <c r="O26">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P26">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q26">
+        <v>1.33328899893</v>
+      </c>
+      <c r="R26">
+        <v>5.333155995719999</v>
+      </c>
+      <c r="S26">
+        <v>0.00896504286787179</v>
+      </c>
+      <c r="T26">
+        <v>0.00425405261322363</v>
       </c>
     </row>
   </sheetData>
